--- a/core/common/commonConfig/cMotion.xlsx
+++ b/core/common/commonConfig/cMotion.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="18860" windowHeight="8440"/>
+    <workbookView xWindow="3560" yWindow="460" windowWidth="22520" windowHeight="14500"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -82,7 +82,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="51">
   <si>
     <t>模型动作类型</t>
   </si>
@@ -229,6 +229,23 @@
   </si>
   <si>
     <t>死亡过程</t>
+  </si>
+  <si>
+    <t>默认持续时间(ms)</t>
+    <rPh sb="0" eb="1">
+      <t>mo'ren</t>
+    </rPh>
+    <rPh sb="2" eb="3">
+      <t>chi'xu</t>
+    </rPh>
+    <rPh sb="4" eb="5">
+      <t>shi'jian</t>
+    </rPh>
+    <phoneticPr fontId="5" type="noConversion"/>
+  </si>
+  <si>
+    <t>defaultMotionTime</t>
+    <phoneticPr fontId="5" type="noConversion"/>
   </si>
 </sst>
 </file>
@@ -627,10 +644,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:E22"/>
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="15" x14ac:dyDescent="0.15"/>
@@ -640,10 +657,11 @@
     <col min="3" max="3" width="24.83203125" style="1" customWidth="1"/>
     <col min="4" max="4" width="26.33203125" style="1" customWidth="1"/>
     <col min="5" max="5" width="17.5" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="9" style="1"/>
+    <col min="6" max="6" width="19.33203125" style="1" customWidth="1"/>
+    <col min="7" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A1" s="2">
         <v>0</v>
       </c>
@@ -655,7 +673,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
@@ -671,8 +689,11 @@
       <c r="E2" s="3" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F2" s="3" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A3" s="4" t="s">
         <v>7</v>
       </c>
@@ -688,8 +709,11 @@
       <c r="E3" s="4" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F3" s="4" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A4" s="4" t="s">
         <v>9</v>
       </c>
@@ -705,8 +729,11 @@
       <c r="E4" s="4" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F4" s="4" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A5" s="4" t="s">
         <v>2</v>
       </c>
@@ -722,8 +749,11 @@
       <c r="E5" s="3" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F5" s="3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A6" s="2">
         <f t="shared" ref="A6:A10" si="0">ROW()-5</f>
         <v>1</v>
@@ -740,8 +770,11 @@
       <c r="E6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F6" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>2</v>
@@ -758,8 +791,11 @@
       <c r="E7" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F7" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>3</v>
@@ -776,8 +812,11 @@
       <c r="E8" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F8" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>4</v>
@@ -794,8 +833,11 @@
       <c r="E9" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F9" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>5</v>
@@ -812,8 +854,11 @@
       <c r="E10" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F10" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A11" s="2">
         <f t="shared" ref="A11:A13" si="1">ROW()-5</f>
         <v>6</v>
@@ -830,8 +875,11 @@
       <c r="E11" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F11" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A12" s="2">
         <f t="shared" si="1"/>
         <v>7</v>
@@ -848,8 +896,11 @@
       <c r="E12" s="5">
         <v>7</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F12" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A13" s="2">
         <f t="shared" si="1"/>
         <v>8</v>
@@ -866,8 +917,11 @@
       <c r="E13" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F13" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A14" s="2">
         <f t="shared" ref="A14:A22" si="2">ROW()-5</f>
         <v>9</v>
@@ -884,8 +938,11 @@
       <c r="E14" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F14" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A15" s="2">
         <f t="shared" si="2"/>
         <v>10</v>
@@ -902,8 +959,11 @@
       <c r="E15" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F15" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A16" s="2">
         <f t="shared" si="2"/>
         <v>11</v>
@@ -920,8 +980,11 @@
       <c r="E16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F16" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A17" s="2">
         <f t="shared" si="2"/>
         <v>12</v>
@@ -938,8 +1001,11 @@
       <c r="E17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F17" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A18" s="2">
         <f t="shared" si="2"/>
         <v>13</v>
@@ -956,8 +1022,11 @@
       <c r="E18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F18" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A19" s="2">
         <f t="shared" si="2"/>
         <v>14</v>
@@ -974,8 +1043,11 @@
       <c r="E19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F19" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A20" s="2">
         <f t="shared" si="2"/>
         <v>15</v>
@@ -992,8 +1064,11 @@
       <c r="E20" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F20" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A21" s="2">
         <f t="shared" si="2"/>
         <v>16</v>
@@ -1010,8 +1085,11 @@
       <c r="E21" s="5">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.15">
+      <c r="F21" s="5">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.15">
       <c r="A22" s="2">
         <f t="shared" si="2"/>
         <v>17</v>
@@ -1027,6 +1105,9 @@
       </c>
       <c r="E22" s="5">
         <v>1</v>
+      </c>
+      <c r="F22" s="5">
+        <v>800</v>
       </c>
     </row>
   </sheetData>
